--- a/medicine/Psychotrope/Éric_Beaumard/Éric_Beaumard.xlsx
+++ b/medicine/Psychotrope/Éric_Beaumard/Éric_Beaumard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Beaumard (né le 5 novembre 1963, à Fougères, en Ille-et-Vilaine) est un sommelier français, élu « vice-meilleur sommelier du monde » en 1998.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1977 Éric Beaumard entre en apprentissage en cuisine au « Roc Land » à Tremblay puis travaille comme commis de cuisine à l'« Auberge Saint-Sauveur » à Rennes.
 En 1982, âgé de 18 ans, il est victime d’un accident de moto qui le prive de l’usage de son bras droit. Il se reconvertit alors au métier de sommelier en autodidacte et devient en 1987 sommelier au restaurant « La Poularde » de Montrond-les-Bains durant 14 ans.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3 fois Meilleur jeune sommelier de Bretagne
 1987 : Meilleur jeune sommelier de France (Trophée Ruinart)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ordres honorifiques
 2018 :  Chevalier de la Légion d’Honneur
 2018 :  Chevalier des Arts et des Lettres
 Distinctions
 2003 : « Sommelier de l’Année » par la revue Le Chef
-2020 : Sommelier de l'année par le Guide Michelin France[1]</t>
+2020 : Sommelier de l'année par le Guide Michelin France</t>
         </is>
       </c>
     </row>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« J’ai tout appris à travers des livres puis par des stages en viticulture. »</t>
         </is>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89ric_Beaumard</t>
+          <t>Éric_Beaumard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2006 : Les 100 meilleurs vins avec Catherine Gerbod, Editions Générales First.
 2009 : Les 100 meilleurs vins (seconde édition) avec Catherine Gerbod, Editions Générales First.
